--- a/Data/Trial Data/Constraints.xlsx
+++ b/Data/Trial Data/Constraints.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\asset ops\GO_Group\Interns\2019\Anubha\Constraint Project\Constraint-Project\Data\Trial Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF7D4F-FEE1-4905-896F-6CDBFD84C1FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 Sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019 Sample'!$A$1:$AH$22</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -814,12 +823,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +893,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -930,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,9 +979,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,6 +1031,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,14 +1224,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,96 +1370,96 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>141794</v>
+        <v>8770</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>8283</v>
+        <v>7104</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>8970</v>
+        <v>7111</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2">
-        <v>5901</v>
+        <v>7104</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>80219</v>
+        <v>7351</v>
       </c>
       <c r="M2">
-        <v>10002923761</v>
+        <v>10004197554</v>
       </c>
       <c r="N2" s="2">
-        <v>43652</v>
+        <v>43478</v>
       </c>
       <c r="O2" s="3">
-        <v>43652.625</v>
+        <v>43478.791666666657</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R2">
-        <v>10002383329</v>
+        <v>10000827947</v>
       </c>
       <c r="S2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T2" t="s">
         <v>181</v>
       </c>
       <c r="U2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V2" t="s">
         <v>199</v>
       </c>
       <c r="W2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z2" t="s">
         <v>241</v>
       </c>
       <c r="AA2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB2">
-        <v>0.149</v>
+        <v>6.6620000000000008</v>
       </c>
       <c r="AC2" t="s">
         <v>244</v>
       </c>
       <c r="AD2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE2" t="s">
         <v>199</v>
@@ -1383,200 +1474,200 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8770</v>
+        <v>10951</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>7104</v>
+        <v>40442</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>7111</v>
+        <v>42240</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>7104</v>
+        <v>42014</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L3">
-        <v>7351</v>
+        <v>42160</v>
       </c>
       <c r="M3">
-        <v>10004197554</v>
+        <v>10002234675</v>
       </c>
       <c r="N3" s="2">
-        <v>43478</v>
+        <v>43481</v>
       </c>
       <c r="O3" s="3">
-        <v>43478.79166666666</v>
+        <v>43481.583333333343</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="R3">
-        <v>10000827947</v>
+        <v>10015859095</v>
       </c>
       <c r="S3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="T3" t="s">
         <v>181</v>
       </c>
       <c r="U3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="V3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="W3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="X3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Y3" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="Z3" t="s">
         <v>241</v>
       </c>
       <c r="AA3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="AB3">
-        <v>6.662000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="AC3" t="s">
         <v>244</v>
       </c>
       <c r="AD3" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AE3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AF3" t="s">
         <v>263</v>
       </c>
       <c r="AG3">
-        <v>138</v>
+        <v>138.10001</v>
       </c>
       <c r="AH3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>34564</v>
+        <v>28053</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>6341</v>
+        <v>1222</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>6342</v>
+        <v>1330</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J4">
-        <v>6340</v>
+        <v>1322</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L4">
-        <v>6360</v>
+        <v>1323</v>
       </c>
       <c r="M4">
-        <v>10000758724</v>
+        <v>10002168538</v>
       </c>
       <c r="N4" s="2">
-        <v>43510</v>
+        <v>43502</v>
       </c>
       <c r="O4" s="3">
-        <v>43510.20833333334</v>
+        <v>43502.375</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="R4">
-        <v>10001842431</v>
+        <v>10001982067</v>
       </c>
       <c r="S4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="T4" t="s">
         <v>181</v>
       </c>
       <c r="U4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="V4" t="s">
         <v>200</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Y4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Z4" t="s">
         <v>241</v>
       </c>
       <c r="AA4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AB4">
-        <v>4.166</v>
+        <v>1.952</v>
       </c>
       <c r="AC4" t="s">
         <v>244</v>
       </c>
       <c r="AD4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AE4" t="s">
         <v>200</v>
@@ -1591,200 +1682,200 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>77166</v>
+        <v>34564</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>3301</v>
+        <v>6341</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>120162</v>
+        <v>6342</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="J5">
+        <v>6340</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" t="s">
-        <v>93</v>
+        <v>112</v>
+      </c>
+      <c r="L5">
+        <v>6360</v>
       </c>
       <c r="M5">
-        <v>10000756754</v>
+        <v>10000758724</v>
       </c>
       <c r="N5" s="2">
-        <v>43567</v>
+        <v>43510</v>
       </c>
       <c r="O5" s="3">
-        <v>43567.20833333334</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
+        <v>43510.208333333343</v>
+      </c>
+      <c r="P5" t="s">
+        <v>128</v>
       </c>
       <c r="Q5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R5">
-        <v>10001842432</v>
+        <v>10001842431</v>
       </c>
       <c r="S5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T5" t="s">
         <v>181</v>
       </c>
       <c r="U5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="X5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z5" t="s">
         <v>241</v>
       </c>
       <c r="AA5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB5">
-        <v>0.047</v>
+        <v>4.1660000000000004</v>
       </c>
       <c r="AC5" t="s">
         <v>244</v>
       </c>
       <c r="AD5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AE5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF5" t="s">
         <v>263</v>
       </c>
       <c r="AG5">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="AH5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>141169</v>
+        <v>36576</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>6392</v>
+        <v>8172</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>7130</v>
+        <v>8194</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J6">
-        <v>6364</v>
+        <v>7056</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L6">
-        <v>76390</v>
+        <v>7057</v>
       </c>
       <c r="M6">
-        <v>10001776403</v>
+        <v>10002674974</v>
       </c>
       <c r="N6" s="2">
-        <v>43651</v>
+        <v>43513</v>
       </c>
       <c r="O6" s="3">
-        <v>43651.66666666666</v>
+        <v>43513.25</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R6">
-        <v>10002234100</v>
+        <v>10001866429</v>
       </c>
       <c r="S6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="T6" t="s">
         <v>181</v>
       </c>
       <c r="U6" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="V6" t="s">
         <v>199</v>
       </c>
       <c r="W6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="X6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Y6" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Z6" t="s">
         <v>241</v>
       </c>
       <c r="AA6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AB6">
-        <v>3.338</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AC6" t="s">
         <v>244</v>
       </c>
       <c r="AD6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AE6" t="s">
         <v>199</v>
@@ -1793,13 +1884,13 @@
         <v>263</v>
       </c>
       <c r="AG6">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="AH6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>51056</v>
       </c>
@@ -1843,7 +1934,7 @@
         <v>43533</v>
       </c>
       <c r="O7" s="3">
-        <v>43533.70833333334</v>
+        <v>43533.708333333343</v>
       </c>
       <c r="P7" t="s">
         <v>130</v>
@@ -1882,7 +1973,7 @@
         <v>167</v>
       </c>
       <c r="AB7">
-        <v>1.356</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="AC7" t="s">
         <v>244</v>
@@ -1903,99 +1994,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>67258</v>
+        <v>53459</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>8418</v>
+        <v>38830</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>8961</v>
+        <v>39030</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J8">
-        <v>8414</v>
+        <v>42000</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L8">
-        <v>80470</v>
+        <v>43030</v>
       </c>
       <c r="M8">
-        <v>10015878739</v>
+        <v>10000797909</v>
       </c>
       <c r="N8" s="2">
-        <v>43554</v>
+        <v>43537</v>
       </c>
       <c r="O8" s="3">
-        <v>43554.33333333334</v>
+        <v>43537.166666666657</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="R8">
-        <v>10000819376</v>
+        <v>10004237823</v>
       </c>
       <c r="S8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="T8" t="s">
         <v>181</v>
       </c>
       <c r="U8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="V8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="W8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Y8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Z8" t="s">
         <v>241</v>
       </c>
       <c r="AA8" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="AB8">
-        <v>2.968</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="AC8" t="s">
         <v>244</v>
       </c>
       <c r="AD8" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AE8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AF8" t="s">
         <v>263</v>
@@ -2007,99 +2098,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>154104</v>
+        <v>61146</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>1149</v>
+        <v>3301</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <v>131853</v>
+        <v>120162</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>1019</v>
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9">
-        <v>1250</v>
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
       </c>
       <c r="M9">
-        <v>10015860726</v>
+        <v>10000756754</v>
       </c>
       <c r="N9" s="2">
-        <v>43670</v>
+        <v>43546</v>
       </c>
       <c r="O9" s="3">
-        <v>43670.25</v>
-      </c>
-      <c r="P9" t="s">
-        <v>132</v>
+        <v>43546.875</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="R9">
-        <v>10001781623</v>
+        <v>10001842432</v>
       </c>
       <c r="S9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="T9" t="s">
         <v>181</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="V9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Y9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Z9" t="s">
         <v>241</v>
       </c>
       <c r="AA9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AB9">
-        <v>9.710000000000001</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="AC9" t="s">
         <v>244</v>
       </c>
       <c r="AD9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AE9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF9" t="s">
         <v>263</v>
@@ -2111,99 +2202,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>106514</v>
+        <v>63233</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>1427</v>
+        <v>8418</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>1448</v>
+        <v>8961</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J10">
-        <v>1423</v>
+        <v>8414</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L10">
-        <v>1464</v>
+        <v>80470</v>
       </c>
       <c r="M10">
-        <v>10016011821</v>
+        <v>10015878739</v>
       </c>
       <c r="N10" s="2">
-        <v>43606</v>
+        <v>43549</v>
       </c>
       <c r="O10" s="3">
-        <v>43606.625</v>
+        <v>43549.625</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R10">
-        <v>10000810270</v>
+        <v>10000819376</v>
       </c>
       <c r="S10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T10" t="s">
         <v>181</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W10">
         <v>15</v>
       </c>
       <c r="X10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z10" t="s">
         <v>241</v>
       </c>
       <c r="AA10" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="AB10">
-        <v>13.848</v>
+        <v>40.944000000000003</v>
       </c>
       <c r="AC10" t="s">
         <v>244</v>
       </c>
       <c r="AD10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AE10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF10" t="s">
         <v>263</v>
@@ -2215,206 +2306,206 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>28053</v>
+        <v>62979</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>1222</v>
+        <v>41240</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>1330</v>
+        <v>41371</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J11">
-        <v>1322</v>
+        <v>41240</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="L11">
-        <v>1323</v>
+        <v>42312</v>
       </c>
       <c r="M11">
-        <v>10002168538</v>
+        <v>10002867589</v>
       </c>
       <c r="N11" s="2">
-        <v>43502</v>
+        <v>43549</v>
       </c>
       <c r="O11" s="3">
-        <v>43502.375</v>
+        <v>43549.333333333343</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="R11">
-        <v>10001982067</v>
+        <v>10000820673</v>
       </c>
       <c r="S11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="T11" t="s">
         <v>181</v>
       </c>
       <c r="U11" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="V11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X11" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Y11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Z11" t="s">
         <v>241</v>
       </c>
       <c r="AA11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AB11">
-        <v>1.952</v>
+        <v>2.823</v>
       </c>
       <c r="AC11" t="s">
         <v>244</v>
       </c>
       <c r="AD11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AE11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF11" t="s">
         <v>263</v>
       </c>
       <c r="AG11">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="AH11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>108913</v>
+        <v>67258</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>8162</v>
+        <v>8418</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F12">
-        <v>8172</v>
+        <v>8961</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="J12">
-        <v>8162</v>
+        <v>8414</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L12">
-        <v>8172</v>
+        <v>80470</v>
       </c>
       <c r="M12">
-        <v>10001774490</v>
+        <v>10015878739</v>
       </c>
       <c r="N12" s="2">
-        <v>43609</v>
+        <v>43554</v>
       </c>
       <c r="O12" s="3">
-        <v>43609.54166666666</v>
+        <v>43554.333333333343</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="R12">
-        <v>10000744839</v>
+        <v>10000819376</v>
       </c>
       <c r="S12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>181</v>
       </c>
       <c r="U12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
         <v>199</v>
       </c>
       <c r="W12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Y12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Z12" t="s">
         <v>241</v>
       </c>
       <c r="AA12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB12">
-        <v>1.329</v>
+        <v>2.968</v>
       </c>
       <c r="AC12" t="s">
         <v>244</v>
       </c>
       <c r="AD12" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="AE12" t="s">
         <v>199</v>
       </c>
       <c r="AF12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG12">
         <v>138</v>
@@ -2423,99 +2514,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>36576</v>
+        <v>69514</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>8172</v>
+        <v>6601</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>8194</v>
+        <v>38330</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13">
-        <v>7056</v>
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13">
-        <v>7057</v>
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>10002674974</v>
+        <v>10015937713</v>
       </c>
       <c r="N13" s="2">
-        <v>43513</v>
+        <v>43557</v>
       </c>
       <c r="O13" s="3">
-        <v>43513.25</v>
-      </c>
-      <c r="P13" t="s">
-        <v>136</v>
+        <v>43557.291666666657</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R13">
-        <v>10001866429</v>
+        <v>10002849659</v>
       </c>
       <c r="S13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T13" t="s">
         <v>181</v>
       </c>
       <c r="U13" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="V13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Z13" t="s">
         <v>241</v>
       </c>
       <c r="AA13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB13">
-        <v>0.006</v>
+        <v>17.460999999999999</v>
       </c>
       <c r="AC13" t="s">
         <v>244</v>
       </c>
       <c r="AD13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AE13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF13" t="s">
         <v>263</v>
@@ -2527,96 +2618,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>63233</v>
+        <v>73260</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>8418</v>
+        <v>8260</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F14">
-        <v>8961</v>
+        <v>8270</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J14">
-        <v>8414</v>
+        <v>8260</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L14">
-        <v>80470</v>
+        <v>8270</v>
       </c>
       <c r="M14">
-        <v>10015878739</v>
+        <v>10001982352</v>
       </c>
       <c r="N14" s="2">
-        <v>43549</v>
+        <v>43562</v>
       </c>
       <c r="O14" s="3">
-        <v>43549.625</v>
+        <v>43562</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="R14">
-        <v>10000819376</v>
+        <v>10001982351</v>
       </c>
       <c r="S14" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="T14" t="s">
         <v>181</v>
       </c>
       <c r="U14" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V14" t="s">
         <v>199</v>
       </c>
       <c r="W14">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="X14" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Y14" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Z14" t="s">
         <v>241</v>
       </c>
       <c r="AA14" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="AB14">
-        <v>40.944</v>
+        <v>2.573</v>
       </c>
       <c r="AC14" t="s">
         <v>244</v>
       </c>
       <c r="AD14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="AE14" t="s">
         <v>199</v>
@@ -2631,200 +2722,200 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>10951</v>
+        <v>77166</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>40442</v>
+        <v>3301</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F15">
-        <v>42240</v>
+        <v>120162</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15">
-        <v>42014</v>
+        <v>93</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15">
-        <v>42160</v>
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>10002234675</v>
+        <v>10000756754</v>
       </c>
       <c r="N15" s="2">
-        <v>43481</v>
+        <v>43567</v>
       </c>
       <c r="O15" s="3">
-        <v>43481.58333333334</v>
-      </c>
-      <c r="P15" t="s">
-        <v>137</v>
+        <v>43567.208333333343</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="R15">
-        <v>10015859095</v>
+        <v>10001842432</v>
       </c>
       <c r="S15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="T15" t="s">
         <v>181</v>
       </c>
       <c r="U15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="V15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="X15" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Y15" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Z15" t="s">
         <v>241</v>
       </c>
       <c r="AA15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AB15">
-        <v>0.475</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AC15" t="s">
         <v>244</v>
       </c>
       <c r="AD15" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AE15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF15" t="s">
         <v>263</v>
       </c>
       <c r="AG15">
-        <v>138.10001</v>
+        <v>138</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>69514</v>
+        <v>80899</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>6601</v>
+        <v>6442</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>38330</v>
+        <v>6473</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+      <c r="J16">
+        <v>6442</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" t="s">
-        <v>93</v>
+        <v>122</v>
+      </c>
+      <c r="L16">
+        <v>6449</v>
       </c>
       <c r="M16">
-        <v>10015937713</v>
+        <v>10002891791</v>
       </c>
       <c r="N16" s="2">
-        <v>43557</v>
+        <v>43572</v>
       </c>
       <c r="O16" s="3">
-        <v>43557.29166666666</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
+        <v>43572.708333333343</v>
+      </c>
+      <c r="P16" t="s">
+        <v>139</v>
       </c>
       <c r="Q16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R16">
-        <v>10002849659</v>
+        <v>10002922404</v>
       </c>
       <c r="S16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T16" t="s">
         <v>181</v>
       </c>
       <c r="U16" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="V16" t="s">
         <v>200</v>
       </c>
       <c r="W16">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z16" t="s">
         <v>241</v>
       </c>
       <c r="AA16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AB16">
-        <v>17.461</v>
+        <v>67.551000000000002</v>
       </c>
       <c r="AC16" t="s">
         <v>244</v>
       </c>
       <c r="AD16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AE16" t="s">
         <v>200</v>
@@ -2839,99 +2930,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>53459</v>
+        <v>106514</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>38830</v>
+        <v>1427</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F17">
-        <v>39030</v>
+        <v>1448</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H17">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J17">
-        <v>42000</v>
+        <v>1423</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L17">
-        <v>43030</v>
+        <v>1464</v>
       </c>
       <c r="M17">
-        <v>10000797909</v>
+        <v>10016011821</v>
       </c>
       <c r="N17" s="2">
-        <v>43537</v>
+        <v>43606</v>
       </c>
       <c r="O17" s="3">
-        <v>43537.16666666666</v>
+        <v>43606.625</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="R17">
-        <v>10004237823</v>
+        <v>10000810270</v>
       </c>
       <c r="S17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="T17" t="s">
         <v>181</v>
       </c>
       <c r="U17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="V17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Y17" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Z17" t="s">
         <v>241</v>
       </c>
       <c r="AA17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AB17">
-        <v>8.960000000000001</v>
+        <v>13.848000000000001</v>
       </c>
       <c r="AC17" t="s">
         <v>244</v>
       </c>
       <c r="AD17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AE17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="s">
         <v>263</v>
@@ -2943,102 +3034,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>80899</v>
+        <v>108913</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>6442</v>
+        <v>8162</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F18">
-        <v>6473</v>
+        <v>8172</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="J18">
-        <v>6442</v>
+        <v>8162</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L18">
-        <v>6449</v>
+        <v>8172</v>
       </c>
       <c r="M18">
-        <v>10002891791</v>
+        <v>10001774490</v>
       </c>
       <c r="N18" s="2">
-        <v>43572</v>
+        <v>43609</v>
       </c>
       <c r="O18" s="3">
-        <v>43572.70833333334</v>
+        <v>43609.541666666657</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R18">
-        <v>10002922404</v>
+        <v>10000744839</v>
       </c>
       <c r="S18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="T18" t="s">
         <v>181</v>
       </c>
       <c r="U18" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="V18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Y18" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Z18" t="s">
         <v>241</v>
       </c>
       <c r="AA18" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="AB18">
-        <v>67.551</v>
+        <v>1.329</v>
       </c>
       <c r="AC18" t="s">
         <v>244</v>
       </c>
       <c r="AD18" t="s">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="AE18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG18">
         <v>138</v>
@@ -3047,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>121397</v>
       </c>
@@ -3091,7 +3182,7 @@
         <v>43625</v>
       </c>
       <c r="O19" s="3">
-        <v>43625.83333333334</v>
+        <v>43625.833333333343</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3130,7 +3221,7 @@
         <v>178</v>
       </c>
       <c r="AB19">
-        <v>0.763</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="AC19" t="s">
         <v>244</v>
@@ -3151,96 +3242,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>73260</v>
+        <v>141169</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>8260</v>
+        <v>6392</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>8270</v>
+        <v>7130</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J20">
-        <v>8260</v>
+        <v>6364</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L20">
-        <v>8270</v>
+        <v>76390</v>
       </c>
       <c r="M20">
-        <v>10001982352</v>
+        <v>10001776403</v>
       </c>
       <c r="N20" s="2">
-        <v>43562</v>
+        <v>43651</v>
       </c>
       <c r="O20" s="3">
-        <v>43562</v>
+        <v>43651.666666666657</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="Q20" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="R20">
-        <v>10001982351</v>
+        <v>10002234100</v>
       </c>
       <c r="S20" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="T20" t="s">
         <v>181</v>
       </c>
       <c r="U20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V20" t="s">
         <v>199</v>
       </c>
       <c r="W20">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="X20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Z20" t="s">
         <v>241</v>
       </c>
       <c r="AA20" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AB20">
-        <v>2.573</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="AC20" t="s">
         <v>244</v>
       </c>
       <c r="AD20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AE20" t="s">
         <v>199</v>
@@ -3249,105 +3340,105 @@
         <v>263</v>
       </c>
       <c r="AG20">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="AH20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>62979</v>
+        <v>141794</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>41240</v>
+        <v>8283</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F21">
-        <v>41371</v>
+        <v>8970</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J21">
-        <v>41240</v>
+        <v>5901</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L21">
-        <v>42312</v>
+        <v>80219</v>
       </c>
       <c r="M21">
-        <v>10002867589</v>
+        <v>10002923761</v>
       </c>
       <c r="N21" s="2">
-        <v>43549</v>
+        <v>43652</v>
       </c>
       <c r="O21" s="3">
-        <v>43549.33333333334</v>
+        <v>43652.625</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="Q21" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="R21">
-        <v>10000820673</v>
+        <v>10002383329</v>
       </c>
       <c r="S21" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="T21" t="s">
         <v>181</v>
       </c>
       <c r="U21" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="V21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="W21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X21" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s">
         <v>241</v>
       </c>
       <c r="AA21" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="AB21">
-        <v>2.823</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="AC21" t="s">
         <v>244</v>
       </c>
       <c r="AD21" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AE21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s">
         <v>263</v>
@@ -3359,99 +3450,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>61146</v>
+        <v>154104</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>3301</v>
+        <v>1149</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F22">
-        <v>120162</v>
+        <v>131853</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>1019</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="L22">
+        <v>1250</v>
       </c>
       <c r="M22">
-        <v>10000756754</v>
+        <v>10015860726</v>
       </c>
       <c r="N22" s="2">
-        <v>43546</v>
+        <v>43670</v>
       </c>
       <c r="O22" s="3">
-        <v>43546.875</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
+        <v>43670.25</v>
+      </c>
+      <c r="P22" t="s">
+        <v>132</v>
       </c>
       <c r="Q22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R22">
-        <v>10001842432</v>
+        <v>10001781623</v>
       </c>
       <c r="S22" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="T22" t="s">
         <v>181</v>
       </c>
       <c r="U22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="V22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W22">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s">
         <v>241</v>
       </c>
       <c r="AA22" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AB22">
-        <v>1.005</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="AC22" t="s">
         <v>244</v>
       </c>
       <c r="AD22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AE22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s">
         <v>263</v>
@@ -3464,6 +3555,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH22" xr:uid="{4C55A7B0-3247-402E-89EE-505D671C2309}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH22">
+      <sortCondition ref="N1:N22"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>